--- a/biology/Zoologie/Andrène_de_l'érythrone_blanchâtre/Andrène_de_l'érythrone_blanchâtre.xlsx
+++ b/biology/Zoologie/Andrène_de_l'érythrone_blanchâtre/Andrène_de_l'érythrone_blanchâtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A8ne_de_l%27%C3%A9rythrone_blanch%C3%A2tre</t>
+          <t>Andrène_de_l'érythrone_blanchâtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrena erythronii
-L'Andrène de l'érythrone blanchâtre[2] (Andrena erythronii) est une espèce d'andrènes de la famille Andrenidae. Cette espèce est présente dans l'Est de l'Amérique du Nord[3],[4].
+L'Andrène de l'érythrone blanchâtre (Andrena erythronii) est une espèce d'andrènes de la famille Andrenidae. Cette espèce est présente dans l'Est de l'Amérique du Nord,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A8ne_de_l%27%C3%A9rythrone_blanch%C3%A2tre</t>
+          <t>Andrène_de_l'érythrone_blanchâtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andrena erythronii mesure de 11 à 14 mm pour les femelles et de 9 à 11 mm pour les mâles[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrena erythronii mesure de 11 à 14 mm pour les femelles et de 9 à 11 mm pour les mâles.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A8ne_de_l%27%C3%A9rythrone_blanch%C3%A2tre</t>
+          <t>Andrène_de_l'érythrone_blanchâtre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, erythronii, lui a été donné en référence à Erythronium albidum (l'Érythrone blanchâtre) l'une des plantes sur lesquelles les premiers spécimens ont été collectés[6]. Les deux autres plantes étant Erigenia bulbosa et Salix humilis[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, erythronii, lui a été donné en référence à Erythronium albidum (l'Érythrone blanchâtre) l'une des plantes sur lesquelles les premiers spécimens ont été collectés. Les deux autres plantes étant Erigenia bulbosa et Salix humilis.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A8ne_de_l%27%C3%A9rythrone_blanch%C3%A2tre</t>
+          <t>Andrène_de_l'érythrone_blanchâtre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Charles Robertson, « Descriptions of New Species of North American Bees », Transactions of the American Entomological Society, vol. 18,‎ 1891, p. 49-66 (ISSN 0002-8320 et 2162-3139, JSTOR 25076556, lire en ligne)</t>
         </is>
